--- a/output/state_grandtots_bothyears_6daysout.xlsx
+++ b/output/state_grandtots_bothyears_6daysout.xlsx
@@ -414,25 +414,25 @@
         <v>57949</v>
       </c>
       <c r="C2">
-        <v>157563</v>
+        <v>161327</v>
       </c>
       <c r="D2">
         <v>44603</v>
       </c>
       <c r="E2">
-        <v>102902</v>
+        <v>107085</v>
       </c>
       <c r="F2">
-        <v>157563</v>
+        <v>161327</v>
       </c>
       <c r="G2">
-        <v>157563</v>
+        <v>161327</v>
       </c>
       <c r="H2">
-        <v>58299</v>
+        <v>62482</v>
       </c>
       <c r="I2">
-        <v>130.71</v>
+        <v>140.08</v>
       </c>
     </row>
     <row r="3">
@@ -445,25 +445,25 @@
         <v>424619</v>
       </c>
       <c r="C3">
-        <v>648970</v>
+        <v>696676</v>
       </c>
       <c r="D3">
         <v>424604</v>
       </c>
       <c r="E3">
-        <v>620529</v>
+        <v>671860</v>
       </c>
       <c r="F3">
-        <v>648970</v>
+        <v>696676</v>
       </c>
       <c r="G3">
-        <v>648970</v>
+        <v>696676</v>
       </c>
       <c r="H3">
-        <v>195925</v>
+        <v>247256</v>
       </c>
       <c r="I3">
-        <v>46.14</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="4">
@@ -476,25 +476,25 @@
         <v>2356446</v>
       </c>
       <c r="C4">
-        <v>3350022</v>
+        <v>3368766</v>
       </c>
       <c r="D4">
         <v>1397351</v>
       </c>
       <c r="E4">
-        <v>1979315</v>
+        <v>2173140</v>
       </c>
       <c r="F4">
-        <v>3350022</v>
+        <v>3368766</v>
       </c>
       <c r="G4">
-        <v>3350022</v>
+        <v>3368766</v>
       </c>
       <c r="H4">
-        <v>581964</v>
+        <v>775789</v>
       </c>
       <c r="I4">
-        <v>41.65</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         <v>3684913</v>
       </c>
       <c r="E5">
-        <v>7597853</v>
+        <v>8154732</v>
       </c>
       <c r="H5">
-        <v>3912940</v>
+        <v>4469819</v>
       </c>
       <c r="I5">
-        <v>106.19</v>
+        <v>121.3</v>
       </c>
     </row>
     <row r="6">
@@ -529,25 +529,25 @@
         <v>3177853</v>
       </c>
       <c r="C6">
-        <v>1927299</v>
+        <v>2094711</v>
       </c>
       <c r="D6">
         <v>1385111</v>
       </c>
       <c r="E6">
-        <v>1917236</v>
+        <v>2085528</v>
       </c>
       <c r="F6">
-        <v>1927299</v>
+        <v>2094711</v>
       </c>
       <c r="G6">
-        <v>1927299</v>
+        <v>2094711</v>
       </c>
       <c r="H6">
-        <v>532125</v>
+        <v>700417</v>
       </c>
       <c r="I6">
-        <v>38.42</v>
+        <v>50.57</v>
       </c>
     </row>
     <row r="7">
@@ -591,25 +591,25 @@
         <v>5802180</v>
       </c>
       <c r="C8">
-        <v>8224409</v>
+        <v>8539791</v>
       </c>
       <c r="D8">
         <v>4793907</v>
       </c>
       <c r="E8">
-        <v>6739689</v>
+        <v>7229809</v>
       </c>
       <c r="F8">
-        <v>8224409</v>
+        <v>8539791</v>
       </c>
       <c r="G8">
-        <v>8224409</v>
+        <v>8539791</v>
       </c>
       <c r="H8">
-        <v>1945782</v>
+        <v>2435902</v>
       </c>
       <c r="I8">
-        <v>40.59</v>
+        <v>50.81</v>
       </c>
     </row>
     <row r="9">
@@ -622,25 +622,25 @@
         <v>1991023</v>
       </c>
       <c r="C9">
-        <v>3614479</v>
+        <v>3813960</v>
       </c>
       <c r="D9">
         <v>1909100</v>
       </c>
       <c r="E9">
-        <v>3156827</v>
+        <v>3409774</v>
       </c>
       <c r="F9">
-        <v>3614479</v>
+        <v>3813960</v>
       </c>
       <c r="G9">
-        <v>3614479</v>
+        <v>3813960</v>
       </c>
       <c r="H9">
-        <v>1247727</v>
+        <v>1500674</v>
       </c>
       <c r="I9">
-        <v>65.36</v>
+        <v>78.61</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +666,25 @@
         <v>598246</v>
       </c>
       <c r="C11">
-        <v>903706</v>
+        <v>921748</v>
       </c>
       <c r="D11">
         <v>505559</v>
       </c>
       <c r="E11">
-        <v>773312</v>
+        <v>807898</v>
       </c>
       <c r="F11">
-        <v>903706</v>
+        <v>921748</v>
       </c>
       <c r="G11">
-        <v>903706</v>
+        <v>921748</v>
       </c>
       <c r="H11">
-        <v>267753</v>
+        <v>302339</v>
       </c>
       <c r="I11">
-        <v>52.96</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="12">
@@ -697,25 +697,25 @@
         <v>173990</v>
       </c>
       <c r="C12">
-        <v>436500</v>
+        <v>437158</v>
       </c>
       <c r="D12">
         <v>153464</v>
       </c>
       <c r="E12">
-        <v>294899</v>
+        <v>309257</v>
       </c>
       <c r="F12">
-        <v>436500</v>
+        <v>437158</v>
       </c>
       <c r="G12">
-        <v>436500</v>
+        <v>437158</v>
       </c>
       <c r="H12">
-        <v>141435</v>
+        <v>155793</v>
       </c>
       <c r="I12">
-        <v>92.16</v>
+        <v>101.52</v>
       </c>
     </row>
     <row r="13">
@@ -728,25 +728,25 @@
         <v>1343204</v>
       </c>
       <c r="C13">
-        <v>3389615</v>
+        <v>3497526</v>
       </c>
       <c r="D13">
         <v>1127554</v>
       </c>
       <c r="E13">
-        <v>2527168</v>
+        <v>2674446</v>
       </c>
       <c r="F13">
-        <v>3389615</v>
+        <v>3497526</v>
       </c>
       <c r="G13">
-        <v>3389615</v>
+        <v>3497526</v>
       </c>
       <c r="H13">
-        <v>1399614</v>
+        <v>1546892</v>
       </c>
       <c r="I13">
-        <v>124.13</v>
+        <v>137.19</v>
       </c>
     </row>
     <row r="14">
@@ -772,25 +772,25 @@
         <v>389612</v>
       </c>
       <c r="C15">
-        <v>688400</v>
+        <v>715003</v>
       </c>
       <c r="D15">
         <v>320188</v>
       </c>
       <c r="E15">
-        <v>506204</v>
+        <v>558899</v>
       </c>
       <c r="F15">
-        <v>688400</v>
+        <v>715003</v>
       </c>
       <c r="G15">
-        <v>688400</v>
+        <v>715003</v>
       </c>
       <c r="H15">
-        <v>186016</v>
+        <v>238711</v>
       </c>
       <c r="I15">
-        <v>58.1</v>
+        <v>74.55</v>
       </c>
     </row>
     <row r="16">
@@ -806,13 +806,13 @@
         <v>475767</v>
       </c>
       <c r="E16">
-        <v>934634</v>
+        <v>937888</v>
       </c>
       <c r="H16">
-        <v>458867</v>
+        <v>462121</v>
       </c>
       <c r="I16">
-        <v>96.45</v>
+        <v>97.13</v>
       </c>
     </row>
     <row r="17">
@@ -825,25 +825,25 @@
         <v>941439</v>
       </c>
       <c r="C17">
-        <v>1644329</v>
+        <v>1645496</v>
       </c>
       <c r="D17">
         <v>847415</v>
       </c>
       <c r="E17">
-        <v>1060570</v>
+        <v>1113620</v>
       </c>
       <c r="F17">
-        <v>1644329</v>
+        <v>1645496</v>
       </c>
       <c r="G17">
-        <v>1644329</v>
+        <v>1645496</v>
       </c>
       <c r="H17">
-        <v>213155</v>
+        <v>266205</v>
       </c>
       <c r="I17">
-        <v>25.15</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="18">
@@ -856,25 +856,25 @@
         <v>227291</v>
       </c>
       <c r="C18">
-        <v>464766</v>
+        <v>469396</v>
       </c>
       <c r="D18">
         <v>188157</v>
       </c>
       <c r="E18">
-        <v>403379</v>
+        <v>413174</v>
       </c>
       <c r="F18">
-        <v>464766</v>
+        <v>469396</v>
       </c>
       <c r="G18">
-        <v>464766</v>
+        <v>469396</v>
       </c>
       <c r="H18">
-        <v>215222</v>
+        <v>225017</v>
       </c>
       <c r="I18">
-        <v>114.38</v>
+        <v>119.59</v>
       </c>
     </row>
     <row r="19">
@@ -887,25 +887,25 @@
         <v>1121980</v>
       </c>
       <c r="C19">
-        <v>3182440</v>
+        <v>3221046</v>
       </c>
       <c r="D19">
         <v>842847</v>
       </c>
       <c r="E19">
-        <v>2367643</v>
+        <v>2476941</v>
       </c>
       <c r="F19">
-        <v>3182440</v>
+        <v>3221046</v>
       </c>
       <c r="G19">
-        <v>3182440</v>
+        <v>3221046</v>
       </c>
       <c r="H19">
-        <v>1524796</v>
+        <v>1634094</v>
       </c>
       <c r="I19">
-        <v>180.91</v>
+        <v>193.88</v>
       </c>
     </row>
     <row r="20">
@@ -921,13 +921,13 @@
         <v>381898</v>
       </c>
       <c r="E20">
-        <v>1375962</v>
+        <v>1455151</v>
       </c>
       <c r="H20">
-        <v>994064</v>
+        <v>1073253</v>
       </c>
       <c r="I20">
-        <v>260.3</v>
+        <v>281.03</v>
       </c>
     </row>
     <row r="21">
@@ -940,25 +940,25 @@
         <v>333347</v>
       </c>
       <c r="C21">
-        <v>639693</v>
+        <v>647981</v>
       </c>
       <c r="D21">
         <v>234834</v>
       </c>
       <c r="E21">
-        <v>404896</v>
+        <v>433186</v>
       </c>
       <c r="F21">
-        <v>639693</v>
+        <v>647981</v>
       </c>
       <c r="G21">
-        <v>639693</v>
+        <v>647981</v>
       </c>
       <c r="H21">
-        <v>170062</v>
+        <v>198352</v>
       </c>
       <c r="I21">
-        <v>72.42</v>
+        <v>84.45999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -971,25 +971,25 @@
         <v>2388659</v>
       </c>
       <c r="C22">
-        <v>3639982</v>
+        <v>3871360</v>
       </c>
       <c r="D22">
         <v>2306449</v>
       </c>
       <c r="E22">
-        <v>3629128</v>
+        <v>3860498</v>
       </c>
       <c r="F22">
-        <v>3639982</v>
+        <v>3871360</v>
       </c>
       <c r="G22">
-        <v>3639982</v>
+        <v>3871360</v>
       </c>
       <c r="H22">
-        <v>1322679</v>
+        <v>1554049</v>
       </c>
       <c r="I22">
-        <v>57.35</v>
+        <v>67.38</v>
       </c>
     </row>
     <row r="23">
@@ -1002,25 +1002,25 @@
         <v>108278</v>
       </c>
       <c r="C23">
-        <v>231138</v>
+        <v>239053</v>
       </c>
       <c r="D23">
         <v>87088</v>
       </c>
       <c r="E23">
-        <v>178219</v>
+        <v>193810</v>
       </c>
       <c r="F23">
-        <v>231138</v>
+        <v>239053</v>
       </c>
       <c r="G23">
-        <v>231138</v>
+        <v>239053</v>
       </c>
       <c r="H23">
-        <v>91131</v>
+        <v>106722</v>
       </c>
       <c r="I23">
-        <v>104.64</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="24">
@@ -1033,25 +1033,25 @@
         <v>209510</v>
       </c>
       <c r="C24">
-        <v>527179</v>
+        <v>531477</v>
       </c>
       <c r="D24">
         <v>158689</v>
       </c>
       <c r="E24">
-        <v>411863</v>
+        <v>432258</v>
       </c>
       <c r="F24">
-        <v>527179</v>
+        <v>531477</v>
       </c>
       <c r="G24">
-        <v>527179</v>
+        <v>531477</v>
       </c>
       <c r="H24">
-        <v>253174</v>
+        <v>273569</v>
       </c>
       <c r="I24">
-        <v>159.54</v>
+        <v>172.39</v>
       </c>
     </row>
     <row r="25">
@@ -1064,25 +1064,25 @@
         <v>410263</v>
       </c>
       <c r="C25">
-        <v>5900167</v>
+        <v>5900441</v>
       </c>
       <c r="D25">
         <v>278851</v>
       </c>
       <c r="E25">
-        <v>2632853</v>
+        <v>2792005</v>
       </c>
       <c r="F25">
-        <v>5900167</v>
+        <v>5900441</v>
       </c>
       <c r="G25">
-        <v>5900167</v>
+        <v>5900441</v>
       </c>
       <c r="H25">
-        <v>2354002</v>
+        <v>2513154</v>
       </c>
       <c r="I25">
-        <v>844.18</v>
+        <v>901.25</v>
       </c>
     </row>
     <row r="26">
@@ -1095,25 +1095,25 @@
         <v>407032</v>
       </c>
       <c r="C26">
-        <v>692580</v>
+        <v>714516</v>
       </c>
       <c r="D26">
         <v>387872</v>
       </c>
       <c r="E26">
-        <v>610304</v>
+        <v>649921</v>
       </c>
       <c r="F26">
-        <v>692580</v>
+        <v>714516</v>
       </c>
       <c r="G26">
-        <v>692580</v>
+        <v>714516</v>
       </c>
       <c r="H26">
-        <v>222432</v>
+        <v>262049</v>
       </c>
       <c r="I26">
-        <v>57.35</v>
+        <v>67.56</v>
       </c>
     </row>
     <row r="27">
@@ -1126,25 +1126,25 @@
         <v>581295</v>
       </c>
       <c r="C27">
-        <v>1722888</v>
+        <v>1733609</v>
       </c>
       <c r="D27">
         <v>554835</v>
       </c>
       <c r="E27">
-        <v>778269</v>
+        <v>867671</v>
       </c>
       <c r="F27">
-        <v>1722888</v>
+        <v>1733609</v>
       </c>
       <c r="G27">
-        <v>1722888</v>
+        <v>1733609</v>
       </c>
       <c r="H27">
-        <v>223434</v>
+        <v>312836</v>
       </c>
       <c r="I27">
-        <v>40.27</v>
+        <v>56.38</v>
       </c>
     </row>
     <row r="28">
@@ -1157,25 +1157,25 @@
         <v>1670668</v>
       </c>
       <c r="C28">
-        <v>2968756</v>
+        <v>3027002</v>
       </c>
       <c r="D28">
         <v>1312962</v>
       </c>
       <c r="E28">
-        <v>2419174</v>
+        <v>2538666</v>
       </c>
       <c r="F28">
-        <v>2968756</v>
+        <v>3027002</v>
       </c>
       <c r="G28">
-        <v>2968756</v>
+        <v>3027002</v>
       </c>
       <c r="H28">
-        <v>1106212</v>
+        <v>1225704</v>
       </c>
       <c r="I28">
-        <v>84.25</v>
+        <v>93.34999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1191,13 +1191,13 @@
         <v>951199</v>
       </c>
       <c r="E29">
-        <v>1410787</v>
+        <v>1504098</v>
       </c>
       <c r="H29">
-        <v>459588</v>
+        <v>552899</v>
       </c>
       <c r="I29">
-        <v>48.32</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="30">
@@ -1210,25 +1210,25 @@
         <v>37162</v>
       </c>
       <c r="C30">
-        <v>266138</v>
+        <v>291285</v>
       </c>
       <c r="D30">
         <v>17061</v>
       </c>
       <c r="E30">
-        <v>148029</v>
+        <v>241595</v>
       </c>
       <c r="F30">
-        <v>266138</v>
+        <v>291285</v>
       </c>
       <c r="G30">
-        <v>266138</v>
+        <v>291285</v>
       </c>
       <c r="H30">
-        <v>130968</v>
+        <v>224534</v>
       </c>
       <c r="I30">
-        <v>767.65</v>
+        <v>1316.07</v>
       </c>
     </row>
     <row r="31">
@@ -1244,13 +1244,13 @@
         <v>1477034</v>
       </c>
       <c r="E31">
-        <v>1788704</v>
+        <v>1915810</v>
       </c>
       <c r="H31">
-        <v>311670</v>
+        <v>438776</v>
       </c>
       <c r="I31">
-        <v>21.1</v>
+        <v>29.71</v>
       </c>
     </row>
     <row r="32">
@@ -1266,13 +1266,13 @@
         <v>3525134</v>
       </c>
       <c r="E32">
-        <v>7624976</v>
+        <v>8340030</v>
       </c>
       <c r="H32">
-        <v>4099842</v>
+        <v>4814896</v>
       </c>
       <c r="I32">
-        <v>116.3</v>
+        <v>136.59</v>
       </c>
     </row>
     <row r="33">
@@ -1288,13 +1288,13 @@
         <v>383326</v>
       </c>
       <c r="E33">
-        <v>449474</v>
+        <v>511460</v>
       </c>
       <c r="H33">
-        <v>66148</v>
+        <v>128134</v>
       </c>
       <c r="I33">
-        <v>17.26</v>
+        <v>33.43</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         <v>510289</v>
       </c>
       <c r="C34">
-        <v>2495692</v>
+        <v>2586625</v>
       </c>
       <c r="D34">
         <v>397746</v>
       </c>
       <c r="E34">
-        <v>2169792</v>
+        <v>2290731</v>
       </c>
       <c r="F34">
-        <v>2495692</v>
+        <v>2586625</v>
       </c>
       <c r="G34">
-        <v>2495692</v>
+        <v>2586625</v>
       </c>
       <c r="H34">
-        <v>1772046</v>
+        <v>1892985</v>
       </c>
       <c r="I34">
-        <v>445.52</v>
+        <v>475.93</v>
       </c>
     </row>
     <row r="35">
@@ -1338,25 +1338,25 @@
         <v>77849</v>
       </c>
       <c r="C35">
-        <v>438612</v>
+        <v>438987</v>
       </c>
       <c r="D35">
         <v>60227</v>
       </c>
       <c r="E35">
-        <v>207135</v>
+        <v>222907</v>
       </c>
       <c r="F35">
-        <v>438612</v>
+        <v>438987</v>
       </c>
       <c r="G35">
-        <v>438612</v>
+        <v>438987</v>
       </c>
       <c r="H35">
-        <v>146908</v>
+        <v>162680</v>
       </c>
       <c r="I35">
-        <v>243.92</v>
+        <v>270.11</v>
       </c>
     </row>
     <row r="36">
@@ -1369,25 +1369,25 @@
         <v>2266875</v>
       </c>
       <c r="C36">
-        <v>2508536</v>
+        <v>2699183</v>
       </c>
       <c r="D36">
         <v>1385380</v>
       </c>
       <c r="E36">
-        <v>2396972</v>
+        <v>2608068</v>
       </c>
       <c r="F36">
-        <v>2508536</v>
+        <v>2699183</v>
       </c>
       <c r="G36">
-        <v>2508536</v>
+        <v>2699183</v>
       </c>
       <c r="H36">
-        <v>1011592</v>
+        <v>1222688</v>
       </c>
       <c r="I36">
-        <v>73.02</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1400,25 +1400,25 @@
         <v>665363</v>
       </c>
       <c r="C37">
-        <v>1702810</v>
+        <v>1879788</v>
       </c>
       <c r="D37">
         <v>620675</v>
       </c>
       <c r="E37">
-        <v>1317155</v>
+        <v>1601694</v>
       </c>
       <c r="F37">
-        <v>1702810</v>
+        <v>1879788</v>
       </c>
       <c r="G37">
-        <v>1702810</v>
+        <v>1879788</v>
       </c>
       <c r="H37">
-        <v>696480</v>
+        <v>981019</v>
       </c>
       <c r="I37">
-        <v>112.21</v>
+        <v>158.06</v>
       </c>
     </row>
     <row r="38">
@@ -1431,25 +1431,25 @@
         <v>142645</v>
       </c>
       <c r="C38">
-        <v>317203</v>
+        <v>338217</v>
       </c>
       <c r="D38">
         <v>136685</v>
       </c>
       <c r="E38">
-        <v>289816</v>
+        <v>314087</v>
       </c>
       <c r="F38">
-        <v>317203</v>
+        <v>338217</v>
       </c>
       <c r="G38">
-        <v>317203</v>
+        <v>338217</v>
       </c>
       <c r="H38">
-        <v>153131</v>
+        <v>177402</v>
       </c>
       <c r="I38">
-        <v>112.03</v>
+        <v>129.79</v>
       </c>
     </row>
     <row r="39">
@@ -1462,25 +1462,25 @@
         <v>67144</v>
       </c>
       <c r="C39">
-        <v>120047</v>
+        <v>123750</v>
       </c>
       <c r="D39">
         <v>57002</v>
       </c>
       <c r="E39">
-        <v>105704</v>
+        <v>110818</v>
       </c>
       <c r="F39">
-        <v>120047</v>
+        <v>123750</v>
       </c>
       <c r="G39">
-        <v>120047</v>
+        <v>123750</v>
       </c>
       <c r="H39">
-        <v>48702</v>
+        <v>53816</v>
       </c>
       <c r="I39">
-        <v>85.44</v>
+        <v>94.41</v>
       </c>
     </row>
     <row r="40">
@@ -1490,16 +1490,16 @@
         </is>
       </c>
       <c r="C40">
-        <v>670420</v>
+        <v>670824</v>
       </c>
       <c r="E40">
-        <v>531617</v>
+        <v>534837</v>
       </c>
       <c r="F40">
-        <v>670420</v>
+        <v>670824</v>
       </c>
       <c r="G40">
-        <v>670420</v>
+        <v>670824</v>
       </c>
     </row>
     <row r="41">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="C41">
-        <v>342653</v>
+        <v>342676</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>342653</v>
+        <v>342676</v>
       </c>
       <c r="G41">
-        <v>342653</v>
+        <v>342676</v>
       </c>
     </row>
     <row r="42">
@@ -1528,16 +1528,16 @@
         </is>
       </c>
       <c r="C42">
-        <v>3116829</v>
+        <v>3119234</v>
       </c>
       <c r="E42">
-        <v>1970452</v>
+        <v>2108499</v>
       </c>
       <c r="F42">
-        <v>3116829</v>
+        <v>3119234</v>
       </c>
       <c r="G42">
-        <v>3116829</v>
+        <v>3119234</v>
       </c>
     </row>
     <row r="43">
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="C43">
-        <v>198243</v>
+        <v>198251</v>
       </c>
       <c r="E43">
-        <v>178325</v>
+        <v>178339</v>
       </c>
       <c r="F43">
-        <v>198243</v>
+        <v>198251</v>
       </c>
       <c r="G43">
-        <v>198243</v>
+        <v>198251</v>
       </c>
     </row>
   </sheetData>
